--- a/povit-table.xlsx
+++ b/povit-table.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abukh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FBAE42-92E2-4C98-B1DA-BAE55D0984D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DBCE38-020A-42A3-B1C5-46A748907C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="انت مدرب اكسل قم بتوليد جدول يح" sheetId="1" r:id="rId1"/>
+    <sheet name="البيانات" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -209,6 +209,113 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205739</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="1861728"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="مربع نص 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465FF0C1-A153-DC5B-50E8-BFAF1005CA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14220451621" y="998220"/>
+          <a:ext cx="5715000" cy="1861728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="ar-SA" sz="2400"/>
+            <a:t> إجمالي قيمة المبيعات لكل منطقة</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="ar-SA" sz="2400"/>
+            <a:t>أكثر فئة منتج مبيعًا من حيث الكمية</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="ar-SA" sz="2400"/>
+            <a:t>المنتج الأكثر تحقيقًا للإيرادات</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="ar-SA" sz="2400"/>
+            <a:t>متوسط سعر الوحدة المباعة لكل فئة منتج</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r" rtl="1"/>
+          <a:r>
+            <a:rPr lang="ar-SA" sz="2400"/>
+            <a:t>نسبة مساهمة كل منطقة في إجمالي المبيعات</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,5 +949,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>